--- a/res.xlsx
+++ b/res.xlsx
@@ -31,10 +31,10 @@
     <t>Limitations</t>
   </si>
   <si>
-    <t>sslh</t>
-  </si>
-  <si>
-    <t>GNU General Public License v2.0</t>
+    <t>robyn</t>
+  </si>
+  <si>
+    <t>BSD 2-Clause "Simplified" License</t>
   </si>
   <si>
     <t>commercial-use
@@ -43,10 +43,7 @@
 private-use</t>
   </si>
   <si>
-    <t>include-copyright
-document-changes
-disclose-source
-same-license</t>
+    <t>include-copyright</t>
   </si>
   <si>
     <t>liability
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>BSD 3-Clause "New" or "Revised" License</t>
-  </si>
-  <si>
-    <t>include-copyright</t>
   </si>
   <si>
     <t>python</t>
@@ -101,16 +95,22 @@
 warranty</t>
   </si>
   <si>
+    <t>sslh</t>
+  </si>
+  <si>
+    <t>GNU General Public License v2.0</t>
+  </si>
+  <si>
+    <t>include-copyright
+document-changes
+disclose-source
+same-license</t>
+  </si>
+  <si>
     <t>webrtc</t>
   </si>
   <si>
     <t>MIT License</t>
-  </si>
-  <si>
-    <t>robyn</t>
-  </si>
-  <si>
-    <t>BSD 2-Clause "Simplified" License</t>
   </si>
   <si>
     <t>sslyze</t>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -565,33 +565,33 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -622,7 +622,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
